--- a/Question_Set2/Programming skills/Advanced Networking in Amazon Web Services (AWS).xlsx
+++ b/Question_Set2/Programming skills/Advanced Networking in Amazon Web Services (AWS).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As a solutions architect for a company operating multiple applications across various virtual private clouds (VPCs) and AWS accounts, your task is to design a centralized network architecture. This architecture should interconnect these VPCs and ensure that traffic to AWS does not traverse the public Internet.Which combination of AWS services should you use?', 'ques_type': 2, 'options': ['AWS Transit Gateway and VPC endpoints', 'Amazon VPC Peering and AWS Direct Connect', 'AWS Site-to-Site VPN and VPC endpoints', 'AWS Transit Gateway and Amazon Route 53 Resolver'], 'score': 'AWS Transit Gateway and VPC endpoints'}, {'title': "As a cloud security specialist for an e-commerce platform, you are tasked with ensuring the platform's stability during peak sales periods. The platform experiences significant web traffic, including malicious attempts to disrupt service. You need a solution to protect against web threats and handle high traffic volumes without compromising performance.Which combination of AWS services should you use?", 'ques_type': 2, 'options': ['AWS WAF and Amazon CloudFront', 'AWS Shield Advanced and Amazon Inspector', 'AWS WAF and AWS VPN', 'Amazon GuardDuty and AWS Shield Standard'], 'score': 'AWS WAF and Amazon CloudFront'}, {'title': "As a network security specialist, you have detected irregularities in the network traffic associated with one of your application's virtual private clouds (VPCs). To diagnose any potential security or configuration issues, you need in-depth visibility into the IP traffic to and from the network interfaces. Which AWS feature should you enable?", 'ques_type': 2, 'options': ['VPC Flow Logs', 'Amazon CloudWatch Alarms', 'AWS CloudTrail Logging', 'AWS X-Ray Tracing'], 'score': 'VPC Flow Logs'}, {'title': 'As a cloud infrastructure specialist working for a global media company, you are dealing with complaints about buffering issues from international viewers. Your goal is to distribute traffic over the AWS global network to ensure consistent application performance for all users.Which AWS service should you use?', 'ques_type': 2, 'options': ['Amazon CloudFront', 'AWS Direct Connect', 'AWS Global Accelerator', 'AWS Transit Gateway'], 'score': 'Amazon CloudFront'}]</t>
+    <t>questions = [
+    {
+        "title": "As a solutions architect for a company operating multiple applications across various virtual private clouds (VPCs) and AWS accounts, your task is to design a centralized network architecture. This architecture should interconnect these VPCs and ensure that traffic to AWS does not traverse the public Internet.Which combination of AWS services should you use?",
+        "ques_type": 2,
+        "options": [
+            "AWS Transit Gateway and VPC endpoints",
+            "Amazon VPC Peering and AWS Direct Connect",
+            "AWS Site-to-Site VPN and VPC endpoints",
+            "AWS Transit Gateway and Amazon Route 53 Resolver"
+        ],
+        "score": "AWS Transit Gateway and VPC endpoints"
+    },
+    {
+        "title": "As a cloud security specialist for an e-commerce platform, you are tasked with ensuring the platform's stability during peak sales periods. The platform experiences significant web traffic, including malicious attempts to disrupt service. You need a solution to protect against web threats and handle high traffic volumes without compromising performance.Which combination of AWS services should you use?",
+        "ques_type": 2,
+        "options": [
+            "AWS WAF and Amazon CloudFront",
+            "AWS Shield Advanced and Amazon Inspector",
+            "AWS WAF and AWS VPN",
+            "Amazon GuardDuty and AWS Shield Standard"
+        ],
+        "score": "AWS WAF and Amazon CloudFront"
+    },
+    {
+        "title": "As a network security specialist, you have detected irregularities in the network traffic associated with one of your application's virtual private clouds (VPCs). To diagnose any potential security or configuration issues, you need in-depth visibility into the IP traffic to and from the network interfaces. Which AWS feature should you enable?",
+        "ques_type": 2,
+        "options": [
+            "VPC Flow Logs",
+            "Amazon CloudWatch Alarms",
+            "AWS CloudTrail Logging",
+            "AWS X-Ray Tracing"
+        ],
+        "score": "VPC Flow Logs"
+    },
+    {
+        "title": "As a cloud infrastructure specialist working for a global media company, you are dealing with complaints about buffering issues from international viewers. Your goal is to distribute traffic over the AWS global network to ensure consistent application performance for all users.Which AWS service should you use?",
+        "ques_type": 2,
+        "options": [
+            "Amazon CloudFront",
+            "AWS Direct Connect",
+            "AWS Global Accelerator",
+            "AWS Transit Gateway"
+        ],
+        "score": "Amazon CloudFront"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
